--- a/build/classes/Excel/18130159.xlsx
+++ b/build/classes/Excel/18130159.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="66">
   <si>
     <t>Estado</t>
   </si>
@@ -26,10 +26,10 @@
     <t>Linea</t>
   </si>
   <si>
-    <t>-60</t>
-  </si>
-  <si>
-    <t>reg</t>
+    <t>-97</t>
+  </si>
+  <si>
+    <t>INT</t>
   </si>
   <si>
     <t>1</t>
@@ -38,7 +38,28 @@
     <t>-1</t>
   </si>
   <si>
-    <t>r</t>
+    <t>func</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
   </si>
   <si>
     <t>-53</t>
@@ -47,157 +68,136 @@
     <t>{</t>
   </si>
   <si>
-    <t>-97</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>-54</t>
   </si>
   <si>
     <t>}</t>
   </si>
   <si>
-    <t>-65</t>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>func2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>Se repitio el item</t>
+  </si>
+  <si>
+    <t>Sintaxis:Ambito</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Ambito</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>String (CHAR[])</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>EXP</t>
   </si>
   <si>
     <t>REG</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Ambito</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>String (CHAR[])</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>EXP</t>
   </si>
   <si>
     <t>VOID</t>
@@ -257,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -309,10 +309,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -323,7 +323,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -331,10 +331,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -342,90 +342,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -436,18 +436,293 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -457,7 +732,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -465,19 +740,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -495,120 +787,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>49</v>
-      </c>
-      <c r="R1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" t="s">
-        <v>52</v>
-      </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +910,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -626,28 +918,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
       </c>
       <c r="I1" t="s">
         <v>61</v>
@@ -673,7 +965,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -685,16 +977,16 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
         <v>1.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
       </c>
       <c r="L2" t="n">
         <v>2.0</v>
@@ -739,8 +1031,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>65</v>
+      <c r="A4" t="n">
+        <v>2.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -761,19 +1053,57 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
         <v>1.0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.0</v>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/Excel/18130159.xlsx
+++ b/build/classes/Excel/18130159.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>Estado</t>
   </si>
@@ -26,19 +26,73 @@
     <t>Linea</t>
   </si>
   <si>
+    <t>-60</t>
+  </si>
+  <si>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
     <t>-97</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>func</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>-65</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>-49</t>
@@ -47,51 +101,12 @@
     <t>(</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>-50</t>
   </si>
   <si>
     <t>)</t>
   </si>
   <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>func2</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Token</t>
   </si>
   <si>
@@ -101,15 +116,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>704</t>
-  </si>
-  <si>
-    <t>Se repitio el item</t>
-  </si>
-  <si>
-    <t>Sintaxis:Ambito</t>
-  </si>
-  <si>
     <t>Erroes</t>
   </si>
   <si>
@@ -167,18 +173,15 @@
     <t>Funciones</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Ambito</t>
   </si>
   <si>
@@ -195,9 +198,6 @@
   </si>
   <si>
     <t>EXP</t>
-  </si>
-  <si>
-    <t>REG</t>
   </si>
   <si>
     <t>VOID</t>
@@ -257,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -309,10 +309,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -323,7 +323,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -331,10 +331,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -342,90 +342,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -436,293 +436,18 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +457,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -740,36 +465,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -787,120 +495,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>53</v>
-      </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +618,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -918,28 +626,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
         <v>61</v>
@@ -965,7 +673,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -977,7 +685,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -986,10 +694,10 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
         <v>1.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1031,8 +739,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2.0</v>
+      <c r="A4" t="s">
+        <v>65</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1053,7 +761,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -1065,45 +773,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/Excel/18130159.xlsx
+++ b/build/classes/Excel/18130159.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Estado</t>
   </si>
@@ -56,148 +56,142 @@
     <t>X</t>
   </si>
   <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
     <t>-54</t>
   </si>
   <si>
     <t>}</t>
   </si>
   <si>
-    <t>-65</t>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Erroes</t>
+  </si>
+  <si>
+    <t>Identificadores</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Palabras reservadas</t>
+  </si>
+  <si>
+    <t>C-Enteras</t>
+  </si>
+  <si>
+    <t>C-Texto</t>
+  </si>
+  <si>
+    <t>C-Decimal</t>
+  </si>
+  <si>
+    <t>C-Carácter</t>
+  </si>
+  <si>
+    <t>C-Exponencial</t>
+  </si>
+  <si>
+    <t>Aritmeticos</t>
+  </si>
+  <si>
+    <t>Monogamo</t>
+  </si>
+  <si>
+    <t>Logico</t>
+  </si>
+  <si>
+    <t>Relacionales</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Ambito</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>String (CHAR[])</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>EXP</t>
   </si>
   <si>
     <t>REG</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Erroes</t>
-  </si>
-  <si>
-    <t>Identificadores</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Palabras reservadas</t>
-  </si>
-  <si>
-    <t>C-Enteras</t>
-  </si>
-  <si>
-    <t>C-Texto</t>
-  </si>
-  <si>
-    <t>C-Decimal</t>
-  </si>
-  <si>
-    <t>C-Carácter</t>
-  </si>
-  <si>
-    <t>C-Exponencial</t>
-  </si>
-  <si>
-    <t>Aritmeticos</t>
-  </si>
-  <si>
-    <t>Monogamo</t>
-  </si>
-  <si>
-    <t>Logico</t>
-  </si>
-  <si>
-    <t>Relacionales</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Puntuación</t>
-  </si>
-  <si>
-    <t>Agrupación</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Sintaxis</t>
-  </si>
-  <si>
-    <t>Funciones</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Ambito</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>String (CHAR[])</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>EXP</t>
   </si>
   <si>
     <t>VOID</t>
@@ -257,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -342,13 +336,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -356,98 +350,109 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -465,16 +470,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -495,120 +500,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -626,40 +631,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2">
@@ -685,7 +690,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -697,7 +702,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -711,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -735,12 +740,12 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -749,7 +754,7 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -761,7 +766,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -773,7 +778,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/Excel/18130159.xlsx
+++ b/build/classes/Excel/18130159.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="88">
   <si>
     <t>Estado</t>
   </si>
@@ -53,7 +53,88 @@
     <t>INT</t>
   </si>
   <si>
-    <t>X</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>-65</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>-51</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-52</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>-47</t>
@@ -62,34 +143,25 @@
     <t>,</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>-54</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>-61</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>)</t>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>Token</t>
@@ -101,6 +173,15 @@
     <t>Tipo</t>
   </si>
   <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>Se repitio la variable</t>
+  </si>
+  <si>
+    <t>Sintaxis:Ambito</t>
+  </si>
+  <si>
     <t>Erroes</t>
   </si>
   <si>
@@ -158,19 +239,13 @@
     <t>Funciones</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>9</t>
   </si>
   <si>
     <t>Ambito</t>
@@ -189,9 +264,6 @@
   </si>
   <si>
     <t>EXP</t>
-  </si>
-  <si>
-    <t>REG</t>
   </si>
   <si>
     <t>VOID</t>
@@ -251,7 +323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -342,7 +414,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -350,32 +422,32 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -383,76 +455,450 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -462,7 +908,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -470,19 +916,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -500,120 +963,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="M1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="P1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="Q1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="R1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="S1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>51</v>
-      </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -631,40 +1094,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
@@ -678,7 +1141,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -690,7 +1153,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -702,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +1179,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -740,12 +1203,12 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>63</v>
+      <c r="A4" t="n">
+        <v>2.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -754,7 +1217,7 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -766,7 +1229,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -775,10 +1238,48 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
